--- a/jpa-rest/src/test/resources/template/dest.xlsx
+++ b/jpa-rest/src/test/resources/template/dest.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\springboot-all-in-one\jpa-rest\src\test\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DF35A0-0329-4924-81A3-EC947D99E101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC14C19-F236-49E8-8E76-4147B55E1347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8234DCBC-DC0D-48A1-BEEF-1E171FB1F3A8}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{8234DCBC-DC0D-48A1-BEEF-1E171FB1F3A8}"/>
   </bookViews>
   <sheets>
-    <sheet name="easy (2)" sheetId="6" r:id="rId1"/>
-    <sheet name="easy" sheetId="2" r:id="rId2"/>
+    <sheet name="easy" sheetId="2" r:id="rId1"/>
+    <sheet name="easy (3)" sheetId="7" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
     <sheet name="mock" sheetId="5" r:id="rId6"/>
+    <sheet name="easy (2)" sheetId="6" r:id="rId7"/>
+    <sheet name="test" r:id="rId14" sheetId="8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="123">
   <si>
     <t>Brand</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -548,12 +550,6 @@
   <si>
     <t>{base}</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>F213</t>
   </si>
 </sst>
 </file>
@@ -921,7 +917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -996,6 +992,42 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1029,41 +1061,23 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1378,115 +1392,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2EDE4F-372C-45DE-9369-6F151D1BF5F0}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <cols>
-    <col min="3" max="3" customWidth="true" width="15.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.0"/>
-    <col min="11" max="11" customWidth="true" width="13.26953125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.45" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.7" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-  </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865FF284-7C68-4640-A966-AD67A2643B85}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1499,16 +1409,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.45" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
@@ -1516,19 +1426,19 @@
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.7" customHeight="1">
       <c r="A3" s="23"/>
       <c r="B3" s="3" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1574,6 +1484,104 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDA7C80-4980-453C-8C41-BB4885618003}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="15.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.0"/>
+    <col min="10" max="10" customWidth="true" width="13.26953125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.45" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.7" customHeight="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2964,11 +2972,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="X9:AF9"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:V1"/>
@@ -2979,12 +2988,11 @@
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="X9:AF9"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3006,167 +3014,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="15.6" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="39" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="39" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="39" t="s">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="40"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="39" t="s">
+      <c r="S1" s="35"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="40"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="39" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="48" t="s">
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="48" t="s">
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="48" t="s">
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="50"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="32"/>
+      <c r="AX1" s="32"/>
+      <c r="AY1" s="32"/>
+      <c r="AZ1" s="32"/>
+      <c r="BA1" s="33"/>
     </row>
     <row r="2" spans="1:53">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="45" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="45" t="s">
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="45" t="s">
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="45" t="s">
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="45" t="s">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="45" t="s">
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="45" t="s">
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="45" t="s">
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="45" t="s">
+      <c r="AW2" s="29"/>
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="47"/>
+      <c r="AZ2" s="29"/>
+      <c r="BA2" s="30"/>
     </row>
     <row r="3" spans="1:53">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="12">
         <v>10</v>
       </c>
@@ -3599,6 +3607,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F1:K2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="L1:N2"/>
+    <mergeCell ref="O1:Q2"/>
+    <mergeCell ref="R1:T2"/>
+    <mergeCell ref="U1:W2"/>
+    <mergeCell ref="X1:Z2"/>
     <mergeCell ref="AY2:BA2"/>
     <mergeCell ref="AJ1:AR1"/>
     <mergeCell ref="AS1:BA1"/>
@@ -3611,17 +3630,6 @@
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="AV2:AX2"/>
     <mergeCell ref="AA1:AI1"/>
-    <mergeCell ref="L1:N2"/>
-    <mergeCell ref="O1:Q2"/>
-    <mergeCell ref="R1:T2"/>
-    <mergeCell ref="U1:W2"/>
-    <mergeCell ref="X1:Z2"/>
-    <mergeCell ref="F1:K2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3743,24 +3751,154 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2EDE4F-372C-45DE-9369-6F151D1BF5F0}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="3" max="3" customWidth="true" width="15.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.0"/>
+    <col min="11" max="11" customWidth="true" width="13.26953125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.45" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.7" customHeight="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f7ac5285-7b0f-47b9-8de3-acca560c2bb8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AEFF2F7272C24744B1F8B0BA1D523C4D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5cac7231bce1fca193a307114b20d1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f7ac5285-7b0f-47b9-8de3-acca560c2bb8" xmlns:ns4="fea06ae5-813c-4597-8dc4-a522b2a242ac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1738ad3f9c01079e2e6a1f5a55dfef56" ns3:_="" ns4:_="">
     <xsd:import namespace="f7ac5285-7b0f-47b9-8de3-acca560c2bb8"/>
@@ -4001,10 +4139,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f7ac5285-7b0f-47b9-8de3-acca560c2bb8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEE460D2-6A27-45AD-A757-26614E63A2A3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1939356-7A45-491F-BF79-D0FF64D395A2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f7ac5285-7b0f-47b9-8de3-acca560c2bb8"/>
+    <ds:schemaRef ds:uri="fea06ae5-813c-4597-8dc4-a522b2a242ac"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4027,20 +4193,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1939356-7A45-491F-BF79-D0FF64D395A2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEE460D2-6A27-45AD-A757-26614E63A2A3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f7ac5285-7b0f-47b9-8de3-acca560c2bb8"/>
-    <ds:schemaRef ds:uri="fea06ae5-813c-4597-8dc4-a522b2a242ac"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>